--- a/data/raw/interaction_matrices/willem_2012/0_20_60/otherplace.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_20_60/otherplace.xlsx
@@ -56,12 +56,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,72 +156,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.81597924035209</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.09297028679098</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.429111179723579</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.397424996089938</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.82762364949445</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.697087527001736</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.378455316525892</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.69077286762527</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1.46082416285318</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -230,72 +236,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.894956549900684</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.544848655545195</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.366262481976834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.198117439619901</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.513573463363788</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.264790883020399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.32302580333002</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.642245375600173</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.787751814138439</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -313,72 +316,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.186607349131917</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.215402883275128</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0429053464905066</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0783246270076789</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.634896341902155</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.151342893906543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0378404414845999</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.367079382162628</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.140751820099208</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -396,72 +396,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.436543859657183</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.418310610523907</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0907014451931143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.152105775208175</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.11619277762616</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.275843489581401</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0799942899926961</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.669053267817464</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.396988885750906</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -479,72 +476,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.790126869222751</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.379940682009046</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.242498664751319</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.138153731978563</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.415346188220876</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.240154422625005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.213872099498049</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.582490097851886</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.744142607619795</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,72 +556,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.149779422240417</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.0805054735365141</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0783702999566631</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0292733369718645</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.146370959193368</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0435175543392714</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0691188160034281</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.105551020915147</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.16403917602319</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
